--- a/Hardware/remote_shutter/BOM.xlsx
+++ b/Hardware/remote_shutter/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor Tamarin\Documents\GitHub\Canon-Intervalometer\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor Tamarin\Documents\GitHub\Canon-Intervalometer\Hardware\remote_shutter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B281E955-BBDC-4ACC-AAA1-E3F2569A7B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E8987D-2384-47D2-887C-E3DC7A58F7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38295" yWindow="10575" windowWidth="16410" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Part</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Charge control circuit</t>
+  </si>
+  <si>
+    <t>USB-UART converter</t>
+  </si>
+  <si>
+    <t>1317 POLOLU - Module: adapter | USB-UART; CP2102N; USB micro; 1.5x2.4mm; POLOLU-1317 | TME - Elektronische Componenten</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -224,7 +230,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -232,10 +238,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -251,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4009DC08-B675-4320-8612-FFC6D25BDBAE}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{4009DC08-B675-4320-8612-FFC6D25BDBAE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4009DC08-B675-4320-8612-FFC6D25BDBAE}" name="Table1" displayName="Table1" ref="A1:F16" totalsRowShown="0">
+  <autoFilter ref="A1:F16" xr:uid="{4009DC08-B675-4320-8612-FFC6D25BDBAE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9964CAF8-BC40-4857-A93B-37018EB66BEB}" name="Part"/>
     <tableColumn id="2" xr3:uid="{759936DF-FAE0-45E5-B671-94997451E316}" name="Description"/>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,23 +843,35 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Qty]]</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Qty]]</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -872,12 +890,13 @@
     <hyperlink ref="F13" r:id="rId11" display="https://www.lcsc.com/product-detail/Tantalum-Capacitors_Kyocera-AVX-TAJB226K010RNJ_C7198.html" xr:uid="{22D252D6-E796-4F0A-B86D-ACBDFED42E62}"/>
     <hyperlink ref="F5" r:id="rId12" display="https://www.lcsc.com/product-detail/Rotary-Encoders_Mitsumi-Electric-SIQ-02FVS3_C2925423.html" xr:uid="{FB50EC56-7DE9-498C-AAEA-BC393FF7E97F}"/>
     <hyperlink ref="F14" r:id="rId13" display="https://www.lcsc.com/product-detail/Slide-Switches_G-Switch-MK-12D18-G020_C3019727.html" xr:uid="{E838C8F8-4747-4AE5-B5C6-0AABD0F5FF38}"/>
-    <hyperlink ref="F15" r:id="rId14" display="https://www.lcsc.com/product-detail/Battery-Management-ICs_TPOWER-TP4056_C382139.html" xr:uid="{111A80ED-4D8C-4F2E-A3B2-170394732200}"/>
+    <hyperlink ref="F16" r:id="rId14" display="https://www.lcsc.com/product-detail/Battery-Management-ICs_TPOWER-TP4056_C382139.html" xr:uid="{111A80ED-4D8C-4F2E-A3B2-170394732200}"/>
+    <hyperlink ref="F15" r:id="rId15" display="https://www.tme.eu/nl/details/pololu-1317/converters/pololu/1317/" xr:uid="{AA6F0104-7B63-42FD-8FD4-81EE8044BEE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>